--- a/data/2024/fid/FID-ALT-AY-DE-16.xlsx
+++ b/data/2024/fid/FID-ALT-AY-DE-16.xlsx
@@ -181,10 +181,10 @@
     <t>1.1962 - 29.1990,1/2 ; Series nova, 1 (2019)-</t>
   </si>
   <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>DE-12;DE-19</t>
+    <t>3</t>
+  </si>
+  <si>
+    <t>DE-1a;DE-12;DE-19</t>
   </si>
   <si>
     <t>2402717-0</t>
